--- a/pred_ohlcv/54_21/2020-01-12 RDN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 RDN ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>102762.8888997529</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>103063.8888997529</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>102994.8493997529</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>102998.8493997529</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>103002.8493997529</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>102273.8494997529</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -756,7 +756,7 @@
         <v>96833.32929975294</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>95526.77929975293</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>95526.77929975293</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>15153.5169146188</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>14825.3057146188</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>14025.3623146188</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>21222.0999146188</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>22252.0999146188</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>22266.0717146188</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>5013.050814618797</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-494.2364853812023</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>232.6184146187977</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>3958.724314618798</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>3958.724314618798</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>3950.724314618798</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>4750.724314618798</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-19333.3256853812</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-19050.5927853812</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-16550.5927853812</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-16997.5927853812</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-18300.4581853812</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-58786.0740853812</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-60872.1990853812</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-59903.5176853812</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-65571.3819853812</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-107446.3026853812</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-107446.3026853812</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 RDN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 RDN ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>102762.8888997529</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>103063.8888997529</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>102994.8493997529</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -600,7 +600,7 @@
         <v>102273.8494997529</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>15153.5169146188</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>14825.3057146188</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>14025.3623146188</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>21222.0999146188</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>22252.0999146188</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>22272.0717146188</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>5013.050814618797</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>7109.227014618798</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>122.2599146187977</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>3918.078014618798</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>4492.078014618798</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>3958.724314618798</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>3958.724314618798</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>3950.724314618798</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>4750.724314618798</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-19333.3256853812</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-58786.0740853812</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-60872.1990853812</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-59903.5176853812</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-65571.3819853812</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-78106.6481853812</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-88355.3499853812</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-107446.3026853812</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-107446.3026853812</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-107446.3026853812</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-107463.7234853812</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-112181.4159853812</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
